--- a/EASE/EASE(S)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(S)-Repeated-Donohue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9813E7-3577-41DE-B3A0-607C2A193978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{D1A05507-14D9-480D-84BD-44EDD9653B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{327EE0C9-933D-4A4D-B0EB-2D8C129BD01A}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="795" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -40,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="139">
   <si>
     <t>Group</t>
   </si>
@@ -416,9 +418,6 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>Input Method: Summary Statistics</t>
   </si>
   <si>
@@ -455,9 +454,6 @@
     <t>Critical Thinking Followup Score</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/EASE</t>
-  </si>
-  <si>
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
@@ -467,7 +463,10 @@
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
-    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
 </sst>
 </file>
@@ -8728,23 +8727,23 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:K34"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="29"/>
-    <col min="9" max="10" width="4.5703125" style="29" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="29"/>
-    <col min="18" max="19" width="4.5703125" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="29"/>
+    <col min="1" max="1" width="4.578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="29"/>
+    <col min="9" max="10" width="4.578125" style="29" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="29"/>
+    <col min="18" max="19" width="4.578125" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="121"/>
     </row>
-    <row r="2" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="121"/>
       <c r="B2" s="198" t="s">
         <v>121</v>
@@ -8767,7 +8766,7 @@
       <c r="P2" s="199"/>
       <c r="Q2" s="199"/>
     </row>
-    <row r="3" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="121"/>
       <c r="B3" s="200" t="s">
         <v>62</v>
@@ -8781,7 +8780,7 @@
       <c r="I3" s="197"/>
       <c r="J3" s="197"/>
       <c r="K3" s="200" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="L3" s="200"/>
       <c r="M3" s="200"/>
@@ -8790,10 +8789,10 @@
       <c r="P3" s="200"/>
       <c r="Q3" s="200"/>
     </row>
-    <row r="4" spans="1:17" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="125"/>
       <c r="B4" s="200" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="200"/>
       <c r="D4" s="200"/>
@@ -8804,7 +8803,7 @@
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="201" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L4" s="200"/>
       <c r="M4" s="200"/>
@@ -8813,7 +8812,7 @@
       <c r="P4" s="200"/>
       <c r="Q4" s="200"/>
     </row>
-    <row r="5" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="121"/>
       <c r="I5" s="123"/>
       <c r="J5" s="123"/>
@@ -8825,7 +8824,7 @@
       <c r="P5" s="123"/>
       <c r="Q5" s="123"/>
     </row>
-    <row r="6" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="121"/>
       <c r="B6" s="7" t="s">
         <v>81</v>
@@ -8834,7 +8833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="29" t="s">
         <v>96</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="29" t="s">
         <v>97</v>
       </c>
@@ -8850,7 +8849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29" t="s">
         <v>110</v>
       </c>
@@ -8858,12 +8857,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="7" t="s">
         <v>83</v>
       </c>
@@ -8871,10 +8870,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="29" t="s">
         <v>63</v>
       </c>
@@ -8882,16 +8881,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="29" t="s">
         <v>94</v>
@@ -8900,7 +8899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="29" t="s">
         <v>95</v>
@@ -8909,7 +8908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="29"/>
       <c r="B20" s="7" t="s">
         <v>86</v>
@@ -8918,7 +8917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29"/>
       <c r="B22" s="26" t="s">
         <v>87</v>
@@ -8936,7 +8935,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="26" t="s">
         <v>88</v>
@@ -8954,7 +8953,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
         <v>89</v>
@@ -8972,7 +8971,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="29" t="s">
         <v>120</v>
@@ -8981,7 +8980,7 @@
         <v>106</v>
       </c>
       <c r="K25" s="194" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -8990,7 +8989,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29"/>
       <c r="B26" s="26" t="s">
         <v>90</v>
@@ -9008,7 +9007,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="29"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -9017,13 +9016,13 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9032,7 +9031,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="28"/>
       <c r="L29"/>
@@ -9042,7 +9041,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="28" t="s">
         <v>91</v>
@@ -9057,13 +9056,13 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="28" t="s">
         <v>92</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9072,13 +9071,13 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29"/>
       <c r="B32" s="28" t="s">
         <v>93</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9087,7 +9086,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="29"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -9096,7 +9095,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" s="194"/>
     </row>
   </sheetData>
@@ -9131,25 +9130,25 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" style="5"/>
-    <col min="6" max="6" width="11.140625" style="42"/>
-    <col min="7" max="8" width="11.140625" style="5"/>
-    <col min="9" max="10" width="4.5703125" style="5" customWidth="1"/>
-    <col min="11" max="15" width="11.140625" style="191"/>
-    <col min="16" max="16" width="11.140625" style="89"/>
-    <col min="17" max="17" width="11.140625" style="5"/>
-    <col min="18" max="18" width="4.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="11.15625" style="5"/>
+    <col min="6" max="6" width="11.15625" style="42"/>
+    <col min="7" max="8" width="11.15625" style="5"/>
+    <col min="9" max="10" width="4.578125" style="5" customWidth="1"/>
+    <col min="11" max="15" width="11.15625" style="191"/>
+    <col min="16" max="16" width="11.15625" style="89"/>
+    <col min="17" max="17" width="11.15625" style="5"/>
+    <col min="18" max="18" width="4.578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.15625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="5.578125" style="5" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.140625" style="5"/>
+    <col min="29" max="16384" width="11.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="5"/>
       <c r="K1" s="42"/>
       <c r="L1" s="5"/>
@@ -9157,7 +9156,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="206" t="s">
         <v>28</v>
       </c>
@@ -9186,7 +9185,7 @@
       <c r="Y2" s="206"/>
       <c r="Z2" s="206"/>
     </row>
-    <row r="3" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9198,7 +9197,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
@@ -9222,7 +9221,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
@@ -9239,7 +9238,7 @@
       <c r="Y5" s="52"/>
       <c r="Z5" s="52"/>
     </row>
-    <row r="6" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="205" t="s">
         <v>26</v>
       </c>
@@ -9294,9 +9293,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="211" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="211"/>
       <c r="D7" s="211"/>
@@ -9313,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="185" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O7" s="185">
         <v>20</v>
@@ -9357,7 +9356,7 @@
         <v>662.287104</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="212"/>
       <c r="C8" s="212"/>
       <c r="D8" s="212"/>
@@ -9374,7 +9373,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="187" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O8" s="187">
         <v>20</v>
@@ -9418,7 +9417,7 @@
         <v>430.85623599999991</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9471,7 +9470,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="210" t="s">
         <v>27</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="187" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O10" s="187">
         <v>20</v>
@@ -9533,9 +9532,9 @@
         <v>404.84166399999998</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="207" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="207"/>
       <c r="D11" s="207"/>
@@ -9598,7 +9597,7 @@
         <v>1733.2076</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="208"/>
       <c r="C12" s="208"/>
       <c r="D12" s="208"/>
@@ -9622,7 +9621,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="208"/>
       <c r="C13" s="208"/>
       <c r="D13" s="208"/>
@@ -9648,7 +9647,7 @@
       <c r="Y13" s="52"/>
       <c r="Z13" s="52"/>
     </row>
-    <row r="14" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="209"/>
@@ -9672,7 +9671,7 @@
       <c r="Y14" s="52"/>
       <c r="Z14" s="52"/>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
@@ -9681,7 +9680,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="K16"/>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
@@ -9690,7 +9689,7 @@
       <c r="P16" s="52"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -9698,7 +9697,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -9706,7 +9705,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -9734,7 +9733,7 @@
       <c r="Y19" s="56"/>
       <c r="Z19" s="75"/>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -9758,7 +9757,7 @@
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="205" t="s">
         <v>61</v>
       </c>
@@ -9812,13 +9811,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="203" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="203"/>
       <c r="D22" s="203" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" s="203"/>
       <c r="F22" s="203"/>
@@ -9869,13 +9868,13 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="204" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="204"/>
       <c r="D23" s="204" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="204"/>
       <c r="F23" s="204"/>
@@ -9921,7 +9920,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="204"/>
       <c r="C24" s="204"/>
       <c r="D24" s="204"/>
@@ -9962,13 +9961,13 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="202" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="202"/>
       <c r="D25" s="202" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="202"/>
       <c r="F25" s="202"/>
@@ -10006,7 +10005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
@@ -10030,7 +10029,7 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="S27" s="52"/>
       <c r="T27" s="52" t="s">
         <v>58</v>
@@ -10042,7 +10041,7 @@
       <c r="Y27" s="52"/>
       <c r="Z27" s="52"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
       <c r="E28" s="6"/>
@@ -10056,7 +10055,7 @@
       <c r="Y28" s="52"/>
       <c r="Z28" s="52"/>
     </row>
-    <row r="29" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
       <c r="E29" s="44"/>
@@ -10071,7 +10070,7 @@
       <c r="Y29" s="57"/>
       <c r="Z29" s="26"/>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="E30" s="44"/>
@@ -10085,7 +10084,7 @@
       <c r="Y30" s="57"/>
       <c r="Z30" s="26"/>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="E31" s="44"/>
@@ -10113,7 +10112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
       <c r="E32" s="44"/>
@@ -10135,7 +10134,7 @@
       <c r="Y32" s="92"/>
       <c r="Z32" s="91"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
       <c r="E33" s="44"/>
@@ -10169,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
       <c r="E34" s="44"/>
@@ -10191,7 +10190,7 @@
       <c r="Y34" s="98"/>
       <c r="Z34" s="99"/>
     </row>
-    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
       <c r="E35" s="44"/>
@@ -10216,7 +10215,7 @@
       <c r="Y35" s="100"/>
       <c r="Z35" s="102"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
       <c r="E36" s="44"/>
@@ -10230,33 +10229,33 @@
       <c r="Y36" s="58"/>
       <c r="Z36" s="58"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
     </row>
@@ -10298,26 +10297,26 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="33" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="32"/>
-    <col min="9" max="9" width="4.5703125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="33" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="32"/>
-    <col min="18" max="18" width="4.5703125" style="33" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="33" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="32"/>
+    <col min="9" max="9" width="4.578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="33" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="32"/>
+    <col min="18" max="18" width="4.578125" style="33" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="32" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="32" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="32"/>
+    <col min="27" max="27" width="4.578125" style="32" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="120" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="120" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5"/>
       <c r="J1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="213" t="s">
         <v>36</v>
@@ -10350,7 +10349,7 @@
       <c r="Y2" s="213"/>
       <c r="Z2" s="213"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -10369,7 +10368,7 @@
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="32"/>
       <c r="B4" s="7" t="s">
         <v>107</v>
@@ -10400,7 +10399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -10420,7 +10419,7 @@
       <c r="Q5" s="29"/>
       <c r="S5" s="52"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="127" t="s">
         <v>61</v>
@@ -10463,7 +10462,7 @@
       <c r="Q6" s="214"/>
       <c r="S6" s="52"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="20" t="str">
         <f>Data!T7</f>
@@ -10523,7 +10522,7 @@
         <v>0.32284318590009647</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="22" t="str">
         <f>Data!T8</f>
@@ -10583,7 +10582,7 @@
         <v>1.2473827082194537</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="22" t="str">
         <f>Data!T9</f>
@@ -10643,7 +10642,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="22" t="str">
         <f>Data!T10</f>
@@ -10703,7 +10702,7 @@
         <v>1.2251744196493937</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -10722,7 +10721,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="R12" s="33"/>
       <c r="T12" s="105"/>
@@ -10733,7 +10732,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
       <c r="R13" s="33"/>
       <c r="T13" s="105"/>
@@ -10744,7 +10743,7 @@
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="32"/>
       <c r="B14" s="7" t="s">
         <v>109</v>
@@ -10776,7 +10775,7 @@
       <c r="Y14" s="52"/>
       <c r="Z14" s="52"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -10803,7 +10802,7 @@
       <c r="Y15" s="52"/>
       <c r="Z15" s="52"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="27"/>
       <c r="B16" s="117" t="s">
         <v>74</v>
@@ -10852,7 +10851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A17" s="27"/>
       <c r="B17" s="45" t="s">
         <v>0</v>
@@ -10920,7 +10919,7 @@
         <v>1.4437986194904346</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27"/>
       <c r="B18" s="45">
         <v>1.1000000000000001</v>
@@ -10994,7 +10993,7 @@
         <v>5.5784650590729683</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27"/>
       <c r="B19" s="45">
         <v>1.1000000000000001</v>
@@ -11068,7 +11067,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="27"/>
       <c r="B20" s="45">
         <v>1.1000000000000001</v>
@@ -11142,7 +11141,7 @@
         <v>5.479146573259797</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="27"/>
       <c r="B21" s="45">
         <v>2.1</v>
@@ -11195,7 +11194,7 @@
       <c r="Y21" s="107"/>
       <c r="Z21" s="107"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="27"/>
       <c r="B22" s="45">
         <v>2.1</v>
@@ -11262,7 +11261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27"/>
       <c r="B23" s="45">
         <v>2.1</v>
@@ -11336,7 +11335,7 @@
         <v>1.4437495028287231</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27"/>
       <c r="B24" s="45">
         <v>3.1</v>
@@ -11410,7 +11409,7 @@
         <v>5.5784650590729683</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27"/>
       <c r="B25" s="45">
         <v>3.1</v>
@@ -11484,7 +11483,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="27"/>
       <c r="B26" s="45">
         <v>3.1</v>
@@ -11558,7 +11557,7 @@
         <v>5.479146573259797</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="27"/>
       <c r="B27" s="45">
         <v>4.0999999999999996</v>
@@ -11611,7 +11610,7 @@
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="27"/>
       <c r="B28" s="46">
         <v>4.0999999999999996</v>
@@ -11672,7 +11671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27"/>
       <c r="B29" s="46">
         <v>4.0999999999999996</v>
@@ -11738,7 +11737,7 @@
         <v>1.4437986194904346</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="27"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
@@ -11778,7 +11777,7 @@
         <v>5.5685911575785694</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="27"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -11818,7 +11817,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="27"/>
       <c r="B32" s="41"/>
       <c r="C32" s="31"/>
@@ -11857,7 +11856,7 @@
         <v>5.4699059658315452</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A33" s="4"/>
       <c r="B33" s="41"/>
       <c r="C33" s="31"/>
@@ -11882,7 +11881,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="115"/>
       <c r="C34" s="28"/>
@@ -11903,7 +11902,7 @@
       <c r="Y34" s="52"/>
       <c r="Z34" s="52"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="115"/>
       <c r="C35" s="28"/>
@@ -11924,12 +11923,12 @@
       <c r="Y35" s="52"/>
       <c r="Z35" s="52"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="S36" s="52"/>
       <c r="Y36" s="52"/>
       <c r="Z36" s="52"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="59" t="s">
         <v>108</v>
       </c>
@@ -11951,7 +11950,7 @@
       <c r="Y37" s="52"/>
       <c r="Z37" s="52"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -11969,7 +11968,7 @@
       <c r="Y38" s="52"/>
       <c r="Z38" s="52"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="128" t="s">
         <v>61</v>
       </c>
@@ -12005,7 +12004,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="20" t="str">
         <f>B7</f>
         <v>Pretest</v>
@@ -12048,7 +12047,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="22" t="str">
         <f>B8</f>
         <v>Posttest</v>
@@ -12091,7 +12090,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="22" t="str">
         <f>B9</f>
         <v/>
@@ -12130,7 +12129,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="134" t="str">
         <f>B10</f>
         <v>Followup</v>
@@ -12173,7 +12172,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="107"/>
       <c r="C44" s="2"/>
       <c r="D44" s="107"/>
@@ -12214,25 +12213,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="52" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="52"/>
-    <col min="9" max="10" width="4.5703125" style="52" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="52"/>
-    <col min="18" max="18" width="4.7109375" style="52" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="52" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="52" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="52"/>
+    <col min="9" max="10" width="4.578125" style="52" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="52"/>
+    <col min="18" max="18" width="4.68359375" style="52" customWidth="1"/>
+    <col min="19" max="19" width="4.68359375" style="52" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="52" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="52"/>
+    <col min="27" max="27" width="4.578125" style="52" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="213" t="s">
         <v>100</v>
       </c>
@@ -12252,7 +12251,7 @@
       <c r="P2" s="213"/>
       <c r="Q2" s="213"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="59" t="s">
         <v>107</v>
       </c>
@@ -12285,7 +12284,7 @@
       <c r="Y4" s="40"/>
       <c r="Z4" s="40"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
@@ -12303,7 +12302,7 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="140" t="s">
         <v>61</v>
       </c>
@@ -12353,7 +12352,7 @@
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="111">
         <v>2</v>
       </c>
@@ -12419,7 +12418,7 @@
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="195">
         <v>1</v>
       </c>
@@ -12485,7 +12484,7 @@
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="109"/>
       <c r="C9" s="109"/>
       <c r="D9" s="109"/>
@@ -12510,7 +12509,7 @@
       <c r="Y9" s="40"/>
       <c r="Z9" s="40"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="154" t="s">
         <v>112</v>
       </c>
@@ -12558,7 +12557,7 @@
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="142" t="s">
         <v>101</v>
       </c>
@@ -12624,7 +12623,7 @@
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -12649,7 +12648,7 @@
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R13" s="162"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
@@ -12660,7 +12659,7 @@
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="59" t="s">
         <v>109</v>
       </c>
@@ -12690,7 +12689,7 @@
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -12708,7 +12707,7 @@
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="139" t="s">
         <v>74</v>
       </c>
@@ -12761,7 +12760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="41" t="s">
         <v>0</v>
       </c>
@@ -12831,7 +12830,7 @@
         <v>5.5784650590729683</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12911,7 +12910,7 @@
         <v>1.4437986194904346</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12991,7 +12990,7 @@
         <v>-1.2223844570695777</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -13050,7 +13049,7 @@
       <c r="Y20" s="175"/>
       <c r="Z20" s="175"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="41">
         <v>2.1</v>
       </c>
@@ -13123,7 +13122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="41">
         <v>2.1</v>
       </c>
@@ -13203,7 +13202,7 @@
         <v>5.5784650590729683</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="41">
         <v>2.1</v>
       </c>
@@ -13280,7 +13279,7 @@
         <v>1.4437495028287231</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="41">
         <v>2.75</v>
       </c>
@@ -13357,7 +13356,7 @@
         <v>-1.2333716064831748</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="41">
         <v>2.75</v>
       </c>
@@ -13413,7 +13412,7 @@
       <c r="Y25" s="177"/>
       <c r="Z25" s="177"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="41">
         <v>2.75</v>
       </c>
@@ -13479,7 +13478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="115"/>
       <c r="C27" s="138"/>
       <c r="D27" s="138"/>
@@ -13534,7 +13533,7 @@
         <v>5.5685911575785694</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="115"/>
       <c r="C28" s="115"/>
       <c r="D28" s="138"/>
@@ -13592,7 +13591,7 @@
         <v>1.4437986194904346</v>
       </c>
     </row>
-    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="115"/>
       <c r="C29" s="115"/>
       <c r="D29" s="138"/>
@@ -13631,7 +13630,7 @@
         <v>-1.2223844570695777</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="148" t="s">
         <v>103</v>
       </c>
@@ -13663,7 +13662,7 @@
       <c r="Y30" s="177"/>
       <c r="Z30" s="177"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -13720,7 +13719,7 @@
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="41">
         <v>3.15</v>
       </c>
@@ -13775,7 +13774,7 @@
       </c>
       <c r="S32" s="40"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="41"/>
       <c r="C33" s="138"/>
       <c r="D33" s="41"/>
@@ -13792,7 +13791,7 @@
       <c r="Q33" s="115"/>
       <c r="S33" s="40"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="41"/>
       <c r="C34" s="138"/>
       <c r="D34" s="41"/>
@@ -13825,7 +13824,7 @@
       <c r="Y34" s="40"/>
       <c r="Z34" s="40"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="41"/>
       <c r="C35" s="138"/>
       <c r="D35" s="41"/>
@@ -13858,7 +13857,7 @@
       <c r="Y35" s="40"/>
       <c r="Z35" s="40"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="41"/>
       <c r="C36" s="138"/>
       <c r="D36" s="41"/>
@@ -13882,7 +13881,7 @@
       <c r="Y36" s="40"/>
       <c r="Z36" s="40"/>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="59" t="s">
         <v>108</v>
       </c>
@@ -13904,7 +13903,7 @@
       <c r="Y37" s="40"/>
       <c r="Z37" s="40"/>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K38" s="179"/>
       <c r="L38" s="179"/>
       <c r="M38" s="179"/>
@@ -13922,7 +13921,7 @@
       <c r="Y38" s="162"/>
       <c r="Z38" s="162"/>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="140" t="s">
         <v>61</v>
       </c>
@@ -13966,7 +13965,7 @@
       <c r="Y39" s="162"/>
       <c r="Z39" s="162"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="70">
         <f>IF(B7="","",B7)</f>
         <v>2</v>
@@ -14016,7 +14015,7 @@
       <c r="Y40" s="162"/>
       <c r="Z40" s="162"/>
     </row>
-    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="141">
         <f>IF(B8="","",B8)</f>
         <v>1</v>
@@ -14066,7 +14065,7 @@
       <c r="Y41" s="162"/>
       <c r="Z41" s="162"/>
     </row>
-    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
@@ -14091,7 +14090,7 @@
       <c r="Y42" s="162"/>
       <c r="Z42" s="162"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="155" t="s">
         <v>112</v>
       </c>
@@ -14135,7 +14134,7 @@
       <c r="Y43" s="162"/>
       <c r="Z43" s="162"/>
     </row>
-    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="142" t="s">
         <v>101</v>
       </c>
@@ -14183,7 +14182,7 @@
       <c r="Y44" s="162"/>
       <c r="Z44" s="162"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -14209,7 +14208,7 @@
       <c r="Z45" s="162"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G6:H6"/>
@@ -14237,21 +14236,21 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="29" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="29"/>
-    <col min="9" max="9" width="4.5703125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="32" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="32"/>
-    <col min="18" max="18" width="4.5703125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="29" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="29"/>
+    <col min="9" max="9" width="4.578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="32" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="32"/>
+    <col min="18" max="18" width="4.578125" style="32" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="32" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="32" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="32"/>
+    <col min="27" max="27" width="4.578125" style="32" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="120" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="120" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="119"/>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -14262,7 +14261,7 @@
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
     </row>
-    <row r="2" spans="1:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="213" t="s">
         <v>40</v>
@@ -14295,7 +14294,7 @@
       <c r="Y2" s="213"/>
       <c r="Z2" s="213"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -14305,7 +14304,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="32"/>
       <c r="B4" s="8" t="s">
         <v>107</v>
@@ -14330,7 +14329,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -14341,7 +14340,7 @@
       <c r="Q5" s="29"/>
       <c r="S5" s="52"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="62" t="s">
         <v>61</v>
       </c>
@@ -14385,7 +14384,7 @@
       <c r="Q6" s="214"/>
       <c r="S6" s="52"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="20" t="str">
         <f>IF(D7="","","1 vs. 2")</f>
         <v>1 vs. 2</v>
@@ -14444,7 +14443,7 @@
         <v>-0.2733334740646749</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="22" t="str">
         <f>IF(D8="","","1 vs. 3")</f>
         <v/>
@@ -14503,7 +14502,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="22" t="str">
         <f>IF(D9="","","2 vs. 3")</f>
         <v/>
@@ -14562,7 +14561,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="22" t="str">
         <f>IF(D10="","","1 vs. 4")</f>
         <v>1 vs. 4</v>
@@ -14621,7 +14620,7 @@
         <v>-0.27520343190880298</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="22" t="str">
         <f>IF(D11="","","2 vs. 4")</f>
         <v>2 vs. 4</v>
@@ -14680,7 +14679,7 @@
         <v>0.49733092655662292</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="24" t="str">
         <f>IF(D12="","","3 vs. 4")</f>
         <v/>
@@ -14739,7 +14738,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -14756,7 +14755,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="32"/>
       <c r="B14" s="8" t="s">
         <v>109</v>
@@ -14780,7 +14779,7 @@
       <c r="Y14" s="52"/>
       <c r="Z14" s="52"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -14798,7 +14797,7 @@
       <c r="Y15" s="52"/>
       <c r="Z15" s="52"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="116" t="s">
         <v>74</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="48" t="s">
         <v>0</v>
       </c>
@@ -14911,7 +14910,7 @@
         <v>-1.2223844570695777</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="48">
         <v>1.1000000000000001</v>
       </c>
@@ -14983,7 +14982,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="48">
         <v>1.1000000000000001</v>
       </c>
@@ -15055,7 +15054,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" s="48">
         <v>1.1000000000000001</v>
       </c>
@@ -15127,7 +15126,7 @@
         <v>-1.2307471627786364</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="48">
         <v>2.1</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>2.2241315181871286</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="48">
         <v>2.1</v>
       </c>
@@ -15271,7 +15270,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="48">
         <v>2.1</v>
       </c>
@@ -15322,7 +15321,7 @@
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="48">
         <v>3.1</v>
       </c>
@@ -15387,7 +15386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="48">
         <v>3.1</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>-1.2333716064831748</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="48">
         <v>3.1</v>
       </c>
@@ -15531,7 +15530,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15675,7 +15674,7 @@
         <v>-1.2418134764918705</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15747,7 +15746,7 @@
         <v>42.751310036022915</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="48">
         <v>5.0999999999999996</v>
       </c>
@@ -15819,7 +15818,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="48">
         <v>5.0999999999999996</v>
       </c>
@@ -15870,7 +15869,7 @@
       <c r="Y31" s="52"/>
       <c r="Z31" s="52"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="48">
         <v>5.0999999999999996</v>
       </c>
@@ -15928,7 +15927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B33" s="48">
         <v>6.1</v>
       </c>
@@ -15992,7 +15991,7 @@
         <v>-1.2223844570695777</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="48">
         <v>6.1</v>
       </c>
@@ -16055,7 +16054,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="48">
         <v>6.1</v>
       </c>
@@ -16118,7 +16117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -16148,7 +16147,7 @@
         <v>-1.2307471627786364</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="59" t="s">
         <v>108</v>
       </c>
@@ -16190,7 +16189,7 @@
         <v>2.2241315181871286</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -16228,7 +16227,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="103" t="s">
         <v>61</v>
       </c>
@@ -16269,7 +16268,7 @@
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="20" t="str">
         <f t="shared" ref="B40:B45" si="26">B7</f>
         <v>1 vs. 2</v>
@@ -16311,7 +16310,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="22" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -16349,7 +16348,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="22" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -16387,7 +16386,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="22" t="str">
         <f t="shared" si="26"/>
         <v>1 vs. 4</v>
@@ -16429,7 +16428,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="22" t="str">
         <f t="shared" si="26"/>
         <v>2 vs. 4</v>
@@ -16471,7 +16470,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -16509,7 +16508,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="38"/>
       <c r="C46" s="2"/>
       <c r="D46" s="38"/>

--- a/EASE/EASE(S)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(S)-Repeated-Donohue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{D1A05507-14D9-480D-84BD-44EDD9653B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{327EE0C9-933D-4A4D-B0EB-2D8C129BD01A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="114_{61ED2949-0949-427E-810C-BDBEAAC0A1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C66FDDEF-39FB-47DA-99EA-A5803F645250}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,9 +427,6 @@
     <t>Data from Donohue (2002)</t>
   </si>
   <si>
-    <t>This is the approximate full data from Donohue (2002) as used in Chap. 14 of Cumming and Calin-Jageman (2016) to demonstrate Repeated-Measures designs.</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
+  </si>
+  <si>
+    <t>This is the summary data from Donohue (2002) as used in Chap. 14 of Cumming and Calin-Jageman (2016) to demonstrate Repeated-Measures designs.</t>
   </si>
 </sst>
 </file>
@@ -3475,6 +3475,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{0FFB8C39-026F-40A7-B712-DA2B63331DB6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3486,7 +3491,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3499,6 +3508,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{5F964E0D-348A-45A2-BFE1-F9A16B17F02C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3510,7 +3524,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3523,6 +3541,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{BF54C0E3-4DCE-4A6C-81FA-87278C9FD999}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3534,7 +3557,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3547,6 +3574,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{22D04947-F55F-44A6-BD90-E91F64AC1832}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -3558,7 +3590,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3743,6 +3779,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$H$18:$H$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-5.000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-10.000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4195,6 +4272,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{73E05F73-D64C-4B82-B615-D19AE65EAF2A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4207,7 +4289,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4225,6 +4311,13 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
+                    <a:fld id="{4001DFB9-79E5-4200-875C-699739660793}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4244,7 +4337,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4257,6 +4354,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{32834B4D-0B53-47B0-8B22-F70846417CD6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4269,7 +4371,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4335,6 +4441,23 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$D$24:$D$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-1.745</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-4.300</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-6.855</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4665,6 +4788,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{68C08DEA-7300-465F-8415-B8B82ADC5AAE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4676,7 +4804,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4689,6 +4821,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{DAA7DD10-26FE-4543-B73F-ACA79FE7A899}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4700,7 +4837,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4713,6 +4854,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{7547BE02-5668-47D9-9CD8-62B23F1E80B1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4724,7 +4870,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4737,6 +4887,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{F4053AE0-820C-4E5A-B3C9-D77679ED8145}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4748,7 +4903,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4761,6 +4920,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{CDABD7A7-F11F-45BF-BC8D-718B04E44C88}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4772,7 +4936,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4785,6 +4953,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{6BD6D5BD-3B92-4B67-9ECA-7E23113C7607}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -4796,7 +4969,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4957,6 +5134,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.500</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>-0.500</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>-1.000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-1.500</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5412,6 +5630,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{56C3DDB6-7B0B-4A55-98A2-B50581C0F286}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5424,7 +5647,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5442,6 +5669,13 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
+                    <a:fld id="{45764253-83FF-4B7C-AF56-976C39F9650D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr b="1"/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5461,7 +5695,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5474,6 +5712,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{33975BAC-E508-4011-9687-93C858D33879}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -5486,7 +5729,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5552,6 +5799,23 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$M$24:$M$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>-0.273</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-0.770</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>-1.281</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -8174,15 +8438,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>137158</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>173353</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8212,15 +8476,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>179067</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>26670</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>24762</xdr:rowOff>
+      <xdr:rowOff>55242</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8780,7 +9044,7 @@
       <c r="I3" s="197"/>
       <c r="J3" s="197"/>
       <c r="K3" s="200" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L3" s="200"/>
       <c r="M3" s="200"/>
@@ -8803,7 +9067,7 @@
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="201" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="200"/>
       <c r="M4" s="200"/>
@@ -8980,7 +9244,7 @@
         <v>106</v>
       </c>
       <c r="K25" s="194" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9022,7 +9286,7 @@
         <v>117</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9062,7 +9326,7 @@
         <v>92</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9077,7 +9341,7 @@
         <v>93</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9127,7 +9391,7 @@
   <dimension ref="B1:AB43"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9312,7 +9576,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="185" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O7" s="185">
         <v>20</v>
@@ -9373,7 +9637,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O8" s="187">
         <v>20</v>
@@ -9489,7 +9753,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="187" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O10" s="187">
         <v>20</v>
@@ -9534,7 +9798,7 @@
     </row>
     <row r="11" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="207" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C11" s="207"/>
       <c r="D11" s="207"/>
@@ -9813,11 +10077,11 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="203" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="203"/>
       <c r="D22" s="203" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="203"/>
       <c r="F22" s="203"/>
@@ -9870,11 +10134,11 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="204" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="204"/>
       <c r="D23" s="204" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="204"/>
       <c r="F23" s="204"/>
@@ -9963,11 +10227,11 @@
     </row>
     <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="202" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="202"/>
       <c r="D25" s="202" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="202"/>
       <c r="F25" s="202"/>
@@ -12213,8 +12477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showRuler="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/EASE/EASE(S)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(S)-Repeated-Donohue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="114_{61ED2949-0949-427E-810C-BDBEAAC0A1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C66FDDEF-39FB-47DA-99EA-A5803F645250}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF675385-D1C2-4B86-AAFE-0949EF7748DD}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,9 +400,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/psych/cw/</t>
-  </si>
-  <si>
     <t>Using this Module</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>This is the summary data from Donohue (2002) as used in Chap. 14 of Cumming and Calin-Jageman (2016) to demonstrate Repeated-Measures designs.</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1417,18 +1417,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1454,6 +1442,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3390,7 +3390,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3414,7 +3416,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3438,7 +3442,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3462,7 +3468,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3475,7 +3483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FFB8C39-026F-40A7-B712-DA2B63331DB6}" type="CELLRANGE">
+                    <a:fld id="{21180A46-1400-4421-9F80-E4FBD1819E04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3508,7 +3516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F964E0D-348A-45A2-BFE1-F9A16B17F02C}" type="CELLRANGE">
+                    <a:fld id="{E7D5141F-8B51-428D-B8DB-0AE1F1418FD3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3541,7 +3549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF54C0E3-4DCE-4A6C-81FA-87278C9FD999}" type="CELLRANGE">
+                    <a:fld id="{9A854642-A7BB-4D53-832F-F0B542E18FDA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3574,7 +3582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22D04947-F55F-44A6-BD90-E91F64AC1832}" type="CELLRANGE">
+                    <a:fld id="{410EA16B-D093-40D2-B125-7764FF2154AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3618,7 +3626,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3642,7 +3652,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3666,7 +3678,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4272,7 +4286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73E05F73-D64C-4B82-B615-D19AE65EAF2A}" type="CELLRANGE">
+                    <a:fld id="{E3B2007A-9A16-478C-9F22-073C9FE6A679}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4311,7 +4325,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{4001DFB9-79E5-4200-875C-699739660793}" type="CELLRANGE">
+                    <a:fld id="{5EEFE34D-2AF8-4672-8F79-6DF4D4B2E992}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4354,7 +4368,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32834B4D-0B53-47B0-8B22-F70846417CD6}" type="CELLRANGE">
+                    <a:fld id="{5A53404D-2703-4CD8-A25D-5D0871BB8922}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4727,7 +4741,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4751,7 +4767,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4775,7 +4793,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4788,7 +4808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68C08DEA-7300-465F-8415-B8B82ADC5AAE}" type="CELLRANGE">
+                    <a:fld id="{B87E16B9-D688-4261-BA0C-57155FE91B30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4821,7 +4841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAA7DD10-26FE-4543-B73F-ACA79FE7A899}" type="CELLRANGE">
+                    <a:fld id="{221F4C8B-7C72-4667-899A-5BDCD7D842A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4854,7 +4874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7547BE02-5668-47D9-9CD8-62B23F1E80B1}" type="CELLRANGE">
+                    <a:fld id="{0096ABFD-FE74-4CDD-AA88-6B367142B21A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4887,7 +4907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4053AE0-820C-4E5A-B3C9-D77679ED8145}" type="CELLRANGE">
+                    <a:fld id="{FBA69E72-1989-47CB-909C-AB6DB20B11E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4920,7 +4940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDABD7A7-F11F-45BF-BC8D-718B04E44C88}" type="CELLRANGE">
+                    <a:fld id="{1651FEE9-21C5-4CF8-A8A4-0A74B5299593}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4953,7 +4973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BD6D5BD-3B92-4B67-9ECA-7E23113C7607}" type="CELLRANGE">
+                    <a:fld id="{CE1277EE-0C7B-4349-9516-E38538F1F9FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4997,7 +5017,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5021,7 +5043,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5630,7 +5654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56C3DDB6-7B0B-4A55-98A2-B50581C0F286}" type="CELLRANGE">
+                    <a:fld id="{AB8B0246-548C-4117-BEF7-F78470CCFF37}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5669,7 +5693,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{45764253-83FF-4B7C-AF56-976C39F9650D}" type="CELLRANGE">
+                    <a:fld id="{46EDCFF5-B603-44AF-902D-52B0CE59C535}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5712,7 +5736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33975BAC-E508-4011-9687-93C858D33879}" type="CELLRANGE">
+                    <a:fld id="{9B2043BE-B481-48B3-A30B-65F5A6764564}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8991,7 +9015,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9010,7 +9034,7 @@
     <row r="2" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="121"/>
       <c r="B2" s="198" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="198"/>
       <c r="D2" s="198"/>
@@ -9044,7 +9068,7 @@
       <c r="I3" s="197"/>
       <c r="J3" s="197"/>
       <c r="K3" s="200" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L3" s="200"/>
       <c r="M3" s="200"/>
@@ -9056,7 +9080,7 @@
     <row r="4" spans="1:17" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="125"/>
       <c r="B4" s="200" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="200"/>
       <c r="D4" s="200"/>
@@ -9067,7 +9091,7 @@
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="201" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L4" s="200"/>
       <c r="M4" s="200"/>
@@ -9148,7 +9172,7 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>43</v>
@@ -9238,13 +9262,13 @@
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>106</v>
       </c>
       <c r="K25" s="194" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9262,7 +9286,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="194" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9283,10 +9307,10 @@
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9326,7 +9350,7 @@
         <v>92</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9341,7 +9365,7 @@
         <v>93</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9421,33 +9445,33 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="K2" s="206" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="T2" s="206" t="s">
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="K2" s="203" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="T2" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
     </row>
     <row r="3" spans="2:28" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
@@ -9503,15 +9527,15 @@
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
       <c r="K6" s="183" t="s">
         <v>55</v>
       </c>
@@ -9554,19 +9578,19 @@
         <v>76</v>
       </c>
       <c r="AA6" s="184" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="211" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
+      <c r="B7" s="208" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
       <c r="K7" s="129" t="str">
         <f>IF($B$22="","",$B$22)</f>
         <v>Pretest</v>
@@ -9576,7 +9600,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="185" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O7" s="185">
         <v>20</v>
@@ -9621,13 +9645,13 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
       <c r="K8" s="130" t="str">
         <f>IF($B$23="","",$B$23)</f>
         <v>Posttest</v>
@@ -9637,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="187" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O8" s="187">
         <v>20</v>
@@ -9735,15 +9759,15 @@
       </c>
     </row>
     <row r="10" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="210" t="s">
+      <c r="B10" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
       <c r="K10" s="130" t="str">
         <f>IF($B$25="","",$B$25)</f>
         <v>Followup</v>
@@ -9753,7 +9777,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="187" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O10" s="187">
         <v>20</v>
@@ -9797,15 +9821,15 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="207" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="207"/>
+      <c r="B11" s="204" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
       <c r="K11" s="79" t="s">
         <v>46</v>
       </c>
@@ -9862,13 +9886,13 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="208"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -9886,13 +9910,13 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -9912,13 +9936,13 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="209"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
       <c r="K14" s="52"/>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
@@ -10022,16 +10046,16 @@
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="205" t="s">
+      <c r="B21" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205" t="s">
+      <c r="C21" s="202"/>
+      <c r="D21" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="202"/>
       <c r="H21" s="11" t="s">
         <v>25</v>
       </c>
@@ -10076,16 +10100,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="211" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
       <c r="H22" s="111">
         <v>1</v>
       </c>
@@ -10133,16 +10157,16 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="212" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="51">
         <v>2</v>
       </c>
@@ -10185,12 +10209,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="204"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
       <c r="H24" s="51"/>
       <c r="K24" s="130" t="str">
         <f>IF($B$24="","",$B$24)</f>
@@ -10226,16 +10250,16 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="202" t="s">
+      <c r="B25" s="210" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="210"/>
       <c r="H25" s="112">
         <v>4</v>
       </c>
@@ -10526,6 +10550,14 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -10535,14 +10567,6 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(S)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(S)-Repeated-Donohue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A041AE09-A0C6-431E-B6C8-C954C3166AFC}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C62B90-C7FD-44E9-80F9-919B1E283949}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <definedName name="SPSS2" localSheetId="3">[3]Data!#REF!</definedName>
     <definedName name="SPSS2">[3]Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -451,12 +451,6 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
-  </si>
-  <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
   <si>
@@ -466,7 +460,13 @@
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1194,18 +1194,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1231,6 +1219,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3257,7 +3257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38CF76B5-6A48-47D2-8860-44D02553D06D}" type="CELLRANGE">
+                    <a:fld id="{9406D28E-B4F4-485B-A9A5-A13927350F01}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3290,7 +3290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A677D42-48D6-4A80-BF33-3EC756228D4C}" type="CELLRANGE">
+                    <a:fld id="{AB334E7F-3887-4CFF-A4FF-E6EECFC547AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3323,7 +3323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59FEC0D4-7CC1-4DD0-A379-BAE9241D4761}" type="CELLRANGE">
+                    <a:fld id="{BCCB4FF8-2ED1-46AB-B40B-A0841D154F16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3356,7 +3356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E62D2E12-1CA5-4E74-B80E-B489DA7C32DC}" type="CELLRANGE">
+                    <a:fld id="{D19BF6AA-FC2A-432E-82B1-B42D992821E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4060,7 +4060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{803CB500-B806-439A-B3DB-CFF96FFE1D7D}" type="CELLRANGE">
+                    <a:fld id="{72B87F9B-50BB-47DA-AD2A-6086E7539952}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4099,7 +4099,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{4FD05504-761B-4219-869F-963C5D7C6D12}" type="CELLRANGE">
+                    <a:fld id="{8D69427A-A5C4-4425-85F7-185BF4DC4025}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4142,7 +4142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D1C6725-FB5D-4B51-BD5B-D98F2D49635A}" type="CELLRANGE">
+                    <a:fld id="{B56BE3E3-E509-423D-A598-97DB7A61EEDA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4582,7 +4582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE03BE52-FFA6-4496-A3AE-C64B9388D6F5}" type="CELLRANGE">
+                    <a:fld id="{030FB4A4-0E7C-45D1-B606-56D87C342748}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4615,7 +4615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E89019EF-8AF6-4FD6-9A56-33DE04AE51F4}" type="CELLRANGE">
+                    <a:fld id="{1AAC2EBD-711D-449D-9AF0-51FB59770E20}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4648,7 +4648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23C41CA0-A356-479C-A9E7-85115DB4B5C5}" type="CELLRANGE">
+                    <a:fld id="{EFAC2700-82C5-4E19-9B3B-CE705F242C5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4681,7 +4681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7144704-74D8-41F4-9BD6-B0BE72E9BE8E}" type="CELLRANGE">
+                    <a:fld id="{78657DDD-F31D-47EB-821F-CFA44AC5A46C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4714,7 +4714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C250E63E-5412-441E-821F-7F06D4BACCA3}" type="CELLRANGE">
+                    <a:fld id="{8E91C325-8594-4078-BAFA-A7C0682C59D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4747,7 +4747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CA01C13-5016-495A-9138-97F3CC719194}" type="CELLRANGE">
+                    <a:fld id="{54141335-0730-4E23-A1A1-E3EBA28D7D7A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5428,7 +5428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{950DE2A6-D7E3-4D1E-8863-F43EE482FEB4}" type="CELLRANGE">
+                    <a:fld id="{360E794B-28AC-4D99-8A17-321212FC836F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5467,7 +5467,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{F11A37D5-D517-4029-BCA2-4DB50D6E0373}" type="CELLRANGE">
+                    <a:fld id="{E45C1E3D-0A36-4B4C-AF87-A59791E94745}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5510,7 +5510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FCC93F0-B0F9-4E6C-AC57-D8686DB4BF20}" type="CELLRANGE">
+                    <a:fld id="{C6EC5310-7334-4E0F-9834-D7E9218F86C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8788,8 +8788,8 @@
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8837,7 +8837,7 @@
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
       <c r="K3" s="124" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L3" s="124"/>
       <c r="M3" s="124"/>
@@ -8857,7 +8857,7 @@
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
       <c r="K4" s="125" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L4" s="124"/>
       <c r="M4" s="124"/>
@@ -9030,7 +9030,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="119" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9075,7 +9075,7 @@
         <v>90</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9089,7 +9089,7 @@
         <v>91</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9103,7 +9103,7 @@
         <v>92</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9124,7 +9124,7 @@
       <c r="K34" s="119"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -9178,33 +9178,33 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="K2" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="T2" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
     </row>
     <row r="3" spans="2:28" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
@@ -9240,15 +9240,15 @@
       <c r="P5"/>
     </row>
     <row r="6" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="K6" s="65" t="s">
         <v>54</v>
       </c>
@@ -9294,15 +9294,15 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
       <c r="K7" s="54" t="str">
         <f>IF($B$22="","",$B$22)</f>
         <v>Pretest</v>
@@ -9356,13 +9356,13 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
       <c r="K8" s="56" t="str">
         <f>IF($B$23="","",$B$23)</f>
         <v>Posttest</v>
@@ -9468,15 +9468,15 @@
       </c>
     </row>
     <row r="10" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
       <c r="K10" s="56" t="str">
         <f>IF($B$25="","",$B$25)</f>
         <v>Followup</v>
@@ -9530,15 +9530,15 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="131" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
+      <c r="B11" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
       <c r="K11" s="58" t="s">
         <v>45</v>
       </c>
@@ -9594,13 +9594,13 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -9617,13 +9617,13 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -9635,13 +9635,13 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -9720,16 +9720,16 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
       <c r="H21" s="9" t="s">
         <v>25</v>
       </c>
@@ -9773,16 +9773,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127" t="s">
+      <c r="C22" s="135"/>
+      <c r="D22" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
       <c r="H22" s="80">
         <v>1</v>
       </c>
@@ -9829,16 +9829,16 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128" t="s">
+      <c r="C23" s="136"/>
+      <c r="D23" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="40">
         <v>2</v>
       </c>
@@ -9880,12 +9880,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
       <c r="H24" s="40"/>
       <c r="K24" s="56" t="str">
         <f>IF($B$24="","",$B$24)</f>
@@ -9920,16 +9920,16 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126" t="s">
+      <c r="C25" s="134"/>
+      <c r="D25" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="81">
         <v>4</v>
       </c>
@@ -10203,6 +10203,14 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -10212,14 +10220,6 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10249,33 +10249,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="K2" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="T2" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12086,24 +12086,24 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="K2" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
@@ -13864,34 +13864,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
       <c r="I2"/>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="T2" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(S)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(S)-Repeated-Donohue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C62B90-C7FD-44E9-80F9-919B1E283949}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C46D422-5339-4F4C-843B-DD5C27246031}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -1194,6 +1194,18 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1219,18 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3257,7 +3257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9406D28E-B4F4-485B-A9A5-A13927350F01}" type="CELLRANGE">
+                    <a:fld id="{6CE328E3-84AB-41AC-85C2-270D5304CB54}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3290,7 +3290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB334E7F-3887-4CFF-A4FF-E6EECFC547AB}" type="CELLRANGE">
+                    <a:fld id="{6EA6017E-1E0A-4C9B-B042-2B2A4D040C38}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3323,7 +3323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCCB4FF8-2ED1-46AB-B40B-A0841D154F16}" type="CELLRANGE">
+                    <a:fld id="{B3B12A61-DC8C-4D80-ABA1-BC72CC6EE44A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3356,7 +3356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D19BF6AA-FC2A-432E-82B1-B42D992821E4}" type="CELLRANGE">
+                    <a:fld id="{3FB7E905-E2D8-4A38-8035-A19FC502C877}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4060,7 +4060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72B87F9B-50BB-47DA-AD2A-6086E7539952}" type="CELLRANGE">
+                    <a:fld id="{3464A15E-048F-4BBC-94ED-8ABDD85CA5D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4099,7 +4099,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{8D69427A-A5C4-4425-85F7-185BF4DC4025}" type="CELLRANGE">
+                    <a:fld id="{CD587EB3-6F67-421B-A779-E9EF034D0C43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4142,7 +4142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B56BE3E3-E509-423D-A598-97DB7A61EEDA}" type="CELLRANGE">
+                    <a:fld id="{A96078A6-A8A1-47ED-9057-B015D1C0D45D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4582,7 +4582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{030FB4A4-0E7C-45D1-B606-56D87C342748}" type="CELLRANGE">
+                    <a:fld id="{356143F6-8CE2-4630-896F-CCB882C3D047}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4615,7 +4615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AAC2EBD-711D-449D-9AF0-51FB59770E20}" type="CELLRANGE">
+                    <a:fld id="{2A1191AA-CD73-4CEB-9479-4AB16E5A06ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4648,7 +4648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EFAC2700-82C5-4E19-9B3B-CE705F242C5D}" type="CELLRANGE">
+                    <a:fld id="{5134637C-856A-48A2-8608-986DDECD3083}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4681,7 +4681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78657DDD-F31D-47EB-821F-CFA44AC5A46C}" type="CELLRANGE">
+                    <a:fld id="{FD3017FF-F709-4D3F-A147-34DCE3AAB9D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4714,7 +4714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E91C325-8594-4078-BAFA-A7C0682C59D5}" type="CELLRANGE">
+                    <a:fld id="{7BAEA6B0-3DDC-4643-B9AD-1F3070894A0E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4747,7 +4747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54141335-0730-4E23-A1A1-E3EBA28D7D7A}" type="CELLRANGE">
+                    <a:fld id="{CE0FC8C4-4792-4FCC-A1E8-100C116C81CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5428,7 +5428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{360E794B-28AC-4D99-8A17-321212FC836F}" type="CELLRANGE">
+                    <a:fld id="{E4E3D1FD-46C7-4F2A-9D57-A8BEDC24252A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5467,7 +5467,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{E45C1E3D-0A36-4B4C-AF87-A59791E94745}" type="CELLRANGE">
+                    <a:fld id="{161D8D2B-0AAF-4B95-AA98-F123F95D4861}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5510,7 +5510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6EC5310-7334-4E0F-9834-D7E9218F86C0}" type="CELLRANGE">
+                    <a:fld id="{025D1197-C90B-4976-A26F-A7624F81F99E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8463,9 +8463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8503,9 +8503,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8538,26 +8538,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8590,26 +8573,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8788,8 +8754,8 @@
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9124,7 +9090,7 @@
       <c r="K34" s="119"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -9178,33 +9144,33 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="K2" s="127" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="T2" s="127" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="2:28" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
@@ -9240,15 +9206,15 @@
       <c r="P5"/>
     </row>
     <row r="6" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
       <c r="K6" s="65" t="s">
         <v>54</v>
       </c>
@@ -9294,15 +9260,15 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
       <c r="K7" s="54" t="str">
         <f>IF($B$22="","",$B$22)</f>
         <v>Pretest</v>
@@ -9356,13 +9322,13 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
       <c r="K8" s="56" t="str">
         <f>IF($B$23="","",$B$23)</f>
         <v>Posttest</v>
@@ -9468,15 +9434,15 @@
       </c>
     </row>
     <row r="10" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
       <c r="K10" s="56" t="str">
         <f>IF($B$25="","",$B$25)</f>
         <v>Followup</v>
@@ -9530,15 +9496,15 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
       <c r="K11" s="58" t="s">
         <v>45</v>
       </c>
@@ -9594,13 +9560,13 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -9617,13 +9583,13 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -9635,13 +9601,13 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -9720,16 +9686,16 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126" t="s">
+      <c r="C21" s="129"/>
+      <c r="D21" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
       <c r="H21" s="9" t="s">
         <v>25</v>
       </c>
@@ -9773,16 +9739,16 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135" t="s">
+      <c r="C22" s="127"/>
+      <c r="D22" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="80">
         <v>1</v>
       </c>
@@ -9829,16 +9795,16 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136" t="s">
+      <c r="C23" s="128"/>
+      <c r="D23" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="40">
         <v>2</v>
       </c>
@@ -9880,12 +9846,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="40"/>
       <c r="K24" s="56" t="str">
         <f>IF($B$24="","",$B$24)</f>
@@ -9920,16 +9886,16 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134" t="s">
+      <c r="C25" s="126"/>
+      <c r="D25" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
       <c r="H25" s="81">
         <v>4</v>
       </c>
@@ -10203,14 +10169,6 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="17">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -10220,6 +10178,14 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10249,33 +10215,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="K2" s="127" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="T2" s="127" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12086,24 +12052,24 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="K2" s="127" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
@@ -13864,34 +13830,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
       <c r="I2"/>
-      <c r="K2" s="127" t="s">
+      <c r="K2" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="T2" s="127" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(S)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(S)-Repeated-Donohue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C46D422-5339-4F4C-843B-DD5C27246031}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399B9FF0-4AEC-484C-9747-C3F0B5BBBF0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,22 +451,22 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/EASE</t>
-  </si>
-  <si>
     <t>This is the summary data from Donohue (2002) as used in Chap. 14 of Cumming and Calin-Jageman (2016) to demonstrate Repeated-Measures designs.</t>
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Version: 2.210601</t>
-  </si>
-  <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/EASE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -3257,7 +3257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CE328E3-84AB-41AC-85C2-270D5304CB54}" type="CELLRANGE">
+                    <a:fld id="{A6FA1F31-3236-4960-AEDC-4C93F27A8CDB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3290,7 +3290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EA6017E-1E0A-4C9B-B042-2B2A4D040C38}" type="CELLRANGE">
+                    <a:fld id="{58135B59-8D7F-4883-BB8A-FB79D1A95929}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3323,7 +3323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3B12A61-DC8C-4D80-ABA1-BC72CC6EE44A}" type="CELLRANGE">
+                    <a:fld id="{95272AE8-735E-42B4-AD17-F99FF64AE836}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3356,7 +3356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FB7E905-E2D8-4A38-8035-A19FC502C877}" type="CELLRANGE">
+                    <a:fld id="{836B4C9F-E004-4207-AF6C-CB93F566DE06}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4060,7 +4060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3464A15E-048F-4BBC-94ED-8ABDD85CA5D8}" type="CELLRANGE">
+                    <a:fld id="{AFBFCFA0-EE91-42E7-997E-3FDD979366FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4099,7 +4099,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{CD587EB3-6F67-421B-A779-E9EF034D0C43}" type="CELLRANGE">
+                    <a:fld id="{1A81AD36-8EC0-45A1-A8A1-D7CA1563FDE3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4142,7 +4142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A96078A6-A8A1-47ED-9057-B015D1C0D45D}" type="CELLRANGE">
+                    <a:fld id="{DA012DDC-F95D-4093-9584-C044CB97A20E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4582,7 +4582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{356143F6-8CE2-4630-896F-CCB882C3D047}" type="CELLRANGE">
+                    <a:fld id="{221B0F3C-1EED-428B-B633-D6D3240C2B97}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4615,7 +4615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A1191AA-CD73-4CEB-9479-4AB16E5A06ED}" type="CELLRANGE">
+                    <a:fld id="{8B2A7197-D0D8-486E-A4D3-A9C3EA15F397}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4648,7 +4648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5134637C-856A-48A2-8608-986DDECD3083}" type="CELLRANGE">
+                    <a:fld id="{D72AD3FB-1B53-416F-934A-73847A4D6386}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4681,7 +4681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD3017FF-F709-4D3F-A147-34DCE3AAB9D1}" type="CELLRANGE">
+                    <a:fld id="{8BBD63D5-4A3E-4945-867A-EDDB451F951D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4714,7 +4714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BAEA6B0-3DDC-4643-B9AD-1F3070894A0E}" type="CELLRANGE">
+                    <a:fld id="{1403948A-15A3-4F0B-A2CA-F0362CBB8082}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4747,7 +4747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE0FC8C4-4792-4FCC-A1E8-100C116C81CB}" type="CELLRANGE">
+                    <a:fld id="{A35D627A-F332-44A4-9AE4-92B4A8442AB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5428,7 +5428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4E3D1FD-46C7-4F2A-9D57-A8BEDC24252A}" type="CELLRANGE">
+                    <a:fld id="{57C849FC-6724-4817-A472-0365682890EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5467,7 +5467,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{161D8D2B-0AAF-4B95-AA98-F123F95D4861}" type="CELLRANGE">
+                    <a:fld id="{F8B36A70-583D-4DF5-813E-1258DD0BF4E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5510,7 +5510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{025D1197-C90B-4976-A26F-A7624F81F99E}" type="CELLRANGE">
+                    <a:fld id="{85DF803A-5A70-4C7F-9871-63847FDCBCA8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8462,6 +8462,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8755,7 +8759,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8803,7 +8807,7 @@
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
       <c r="K3" s="124" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L3" s="124"/>
       <c r="M3" s="124"/>
@@ -8823,7 +8827,7 @@
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
       <c r="K4" s="125" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L4" s="124"/>
       <c r="M4" s="124"/>
@@ -8996,7 +9000,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9041,7 +9045,7 @@
         <v>90</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -9055,7 +9059,7 @@
         <v>91</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9069,7 +9073,7 @@
         <v>92</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9100,9 +9104,9 @@
     <mergeCell ref="K4:Q4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K26" r:id="rId2" xr:uid="{4DEC45AC-8205-4124-9FFE-396603773871}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{8ED4693F-B13C-454D-B81F-7627600DE9C7}"/>
+    <hyperlink ref="K26" r:id="rId1" xr:uid="{4DEC45AC-8205-4124-9FFE-396603773871}"/>
+    <hyperlink ref="K25" r:id="rId2" xr:uid="{8ED4693F-B13C-454D-B81F-7627600DE9C7}"/>
+    <hyperlink ref="K4" r:id="rId3" display="https://cwendorf.github.io/BASE/EASE" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9497,7 +9501,7 @@
     </row>
     <row r="11" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="131"/>
       <c r="D11" s="131"/>

--- a/EASE/EASE(S)-Repeated-Donohue.xlsx
+++ b/EASE/EASE(S)-Repeated-Donohue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399B9FF0-4AEC-484C-9747-C3F0B5BBBF0D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{CE61D80A-BA31-4BF1-990D-DB3B174EDD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146C15C1-007D-4347-860F-DA25358AA898}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3257,7 +3257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6FA1F31-3236-4960-AEDC-4C93F27A8CDB}" type="CELLRANGE">
+                    <a:fld id="{D66EAFB7-60C0-40C4-A989-2748DF9B1CBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3290,7 +3290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58135B59-8D7F-4883-BB8A-FB79D1A95929}" type="CELLRANGE">
+                    <a:fld id="{24FFC678-FAF7-4CE7-B088-1BBDDB13F29A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3323,7 +3323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95272AE8-735E-42B4-AD17-F99FF64AE836}" type="CELLRANGE">
+                    <a:fld id="{9FD2E5BA-874E-40D1-BDA6-FBC06F3EB04A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3356,7 +3356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{836B4C9F-E004-4207-AF6C-CB93F566DE06}" type="CELLRANGE">
+                    <a:fld id="{E951D9B2-59E4-4677-A192-09101E1E81B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4060,7 +4060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFBFCFA0-EE91-42E7-997E-3FDD979366FE}" type="CELLRANGE">
+                    <a:fld id="{B19EA05F-8E76-4502-AA50-ED8A57EA4D80}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4099,7 +4099,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{1A81AD36-8EC0-45A1-A8A1-D7CA1563FDE3}" type="CELLRANGE">
+                    <a:fld id="{5D7191D1-86F9-48F1-B8C7-837B96CFBF15}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -4142,7 +4142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA012DDC-F95D-4093-9584-C044CB97A20E}" type="CELLRANGE">
+                    <a:fld id="{BCF6915D-7B16-4886-962D-689ED1CB0276}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4582,7 +4582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{221B0F3C-1EED-428B-B633-D6D3240C2B97}" type="CELLRANGE">
+                    <a:fld id="{F675ACB5-9976-4C56-A7E4-B69D1D275309}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4615,7 +4615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B2A7197-D0D8-486E-A4D3-A9C3EA15F397}" type="CELLRANGE">
+                    <a:fld id="{E62B15AE-E17C-463D-9D21-5A55E9126A10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4648,7 +4648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D72AD3FB-1B53-416F-934A-73847A4D6386}" type="CELLRANGE">
+                    <a:fld id="{81C8E49E-3653-4D4C-8BDD-A5D9E15F6E23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4681,7 +4681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BBD63D5-4A3E-4945-867A-EDDB451F951D}" type="CELLRANGE">
+                    <a:fld id="{4236D19A-5D5C-4DD8-ACEA-431A22C6DFFC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4714,7 +4714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1403948A-15A3-4F0B-A2CA-F0362CBB8082}" type="CELLRANGE">
+                    <a:fld id="{41F86BDE-A862-424A-9D60-194FE7B09F5C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4747,7 +4747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A35D627A-F332-44A4-9AE4-92B4A8442AB9}" type="CELLRANGE">
+                    <a:fld id="{CD6EE513-29EF-45AA-8715-FA34CA99C403}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5428,7 +5428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57C849FC-6724-4817-A472-0365682890EE}" type="CELLRANGE">
+                    <a:fld id="{7D224FE3-A1D6-47F9-8E11-24F3D5F072D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5467,7 +5467,7 @@
                     <a:pPr>
                       <a:defRPr b="1"/>
                     </a:pPr>
-                    <a:fld id="{F8B36A70-583D-4DF5-813E-1258DD0BF4E2}" type="CELLRANGE">
+                    <a:fld id="{EA9C0017-366E-480C-BDE7-AA7AD982C262}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1"/>
@@ -5510,7 +5510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85DF803A-5A70-4C7F-9871-63847FDCBCA8}" type="CELLRANGE">
+                    <a:fld id="{2870D04E-9E19-4B5D-BB58-FD3ADD094D99}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8462,10 +8462,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
